--- a/assets/excel/2023_8-1-1.xlsx
+++ b/assets/excel/2023_8-1-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15_Uebergreifende_Analysen\Projekte\Integrationsmonitoring\github\MT_Site\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184146BA-CF0B-447A-BB27-9FE45BF38D0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5F1311-BA3A-4A20-A09D-E5297D1F7FE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" xr2:uid="{1AA46989-31E6-4362-A3EC-DA6643D016B6}"/>
   </bookViews>
@@ -370,12 +370,129 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -385,134 +502,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -834,13 +834,13 @@
   <dimension ref="B1:L200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+      <selection activeCell="B10" sqref="B10:I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="56" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="56"/>
+    <col min="1" max="1" width="5.7109375" style="42" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" customFormat="1" x14ac:dyDescent="0.25">
@@ -889,1897 +889,1897 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="2:12" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="2:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12" t="s">
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="2:12" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18" t="s">
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="45"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="2:12" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23" t="s">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="46"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25" t="s">
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="2:12" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="27">
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="14">
         <v>1</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14">
         <v>2</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="14">
         <v>3</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="14">
         <v>4</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="14">
         <v>5</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="14">
         <v>6</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="14">
         <v>7</v>
       </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-    </row>
-    <row r="10" spans="2:12" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="15">
         <v>2022</v>
       </c>
-      <c r="D10" s="29">
-        <v>46.1</v>
-      </c>
-      <c r="E10" s="29">
-        <v>38.6</v>
-      </c>
-      <c r="F10" s="29">
-        <v>84.7</v>
-      </c>
-      <c r="G10" s="30">
-        <v>19.581464872944693</v>
-      </c>
-      <c r="H10" s="30">
-        <v>18.967495219885279</v>
-      </c>
-      <c r="I10" s="30">
-        <v>19.278019278019276</v>
-      </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-    </row>
-    <row r="11" spans="2:12" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="28" t="s">
+      <c r="D10" s="16">
+        <v>52.2</v>
+      </c>
+      <c r="E10" s="16">
+        <v>50.7</v>
+      </c>
+      <c r="F10" s="16">
+        <v>102.9</v>
+      </c>
+      <c r="G10" s="17">
+        <v>16.446124763705107</v>
+      </c>
+      <c r="H10" s="17">
+        <v>23.515769944341375</v>
+      </c>
+      <c r="I10" s="17">
+        <v>23.671497584541065</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="15">
         <v>2022</v>
       </c>
-      <c r="D11" s="29">
-        <v>179.9</v>
-      </c>
-      <c r="E11" s="29">
-        <v>161.6</v>
-      </c>
-      <c r="F11" s="29">
-        <v>341.5</v>
-      </c>
-      <c r="G11" s="30">
-        <v>17.009858979158871</v>
-      </c>
-      <c r="H11" s="30">
-        <v>17.819386065469367</v>
-      </c>
-      <c r="I11" s="30">
-        <v>17.410489157841656</v>
-      </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-    </row>
-    <row r="12" spans="2:12" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
+      <c r="D11" s="16">
+        <v>137.1</v>
+      </c>
+      <c r="E11" s="16">
+        <v>140.19999999999999</v>
+      </c>
+      <c r="F11" s="16">
+        <v>277.3</v>
+      </c>
+      <c r="G11" s="17">
+        <v>13.914543793768393</v>
+      </c>
+      <c r="H11" s="17">
+        <v>21.605794421328401</v>
+      </c>
+      <c r="I11" s="17">
+        <v>21.066626149054169</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="15">
         <v>2022</v>
       </c>
-      <c r="D12" s="29">
-        <v>107.2</v>
-      </c>
-      <c r="E12" s="29">
-        <v>100.5</v>
-      </c>
-      <c r="F12" s="29">
-        <v>207.7</v>
-      </c>
-      <c r="G12" s="30">
-        <v>11.778754298815437</v>
-      </c>
-      <c r="H12" s="30">
-        <v>11.960040699287765</v>
-      </c>
-      <c r="I12" s="30">
-        <v>11.870858592978996</v>
-      </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-    </row>
-    <row r="13" spans="2:12" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="28" t="s">
+      <c r="D12" s="16">
+        <v>124.1</v>
+      </c>
+      <c r="E12" s="16">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="F12" s="16">
+        <v>253.7</v>
+      </c>
+      <c r="G12" s="17">
+        <v>10.558107878169134</v>
+      </c>
+      <c r="H12" s="17">
+        <v>13.596813083132403</v>
+      </c>
+      <c r="I12" s="17">
+        <v>13.500425713069392</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="15">
         <v>2022</v>
       </c>
-      <c r="D13" s="29">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="E13" s="29">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="F13" s="29">
-        <v>70</v>
-      </c>
-      <c r="G13" s="30">
-        <v>8.2931404072883179</v>
-      </c>
-      <c r="H13" s="30">
-        <v>8.0141686960371938</v>
-      </c>
-      <c r="I13" s="30">
-        <v>8.1403806522002675</v>
-      </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-    </row>
-    <row r="14" spans="2:12" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="31" t="s">
+      <c r="D13" s="16">
+        <v>62</v>
+      </c>
+      <c r="E13" s="16">
+        <v>72.5</v>
+      </c>
+      <c r="F13" s="16">
+        <v>134.5</v>
+      </c>
+      <c r="G13" s="17">
+        <v>7.9507566042575029</v>
+      </c>
+      <c r="H13" s="17">
+        <v>8.7223291626564006</v>
+      </c>
+      <c r="I13" s="17">
+        <v>8.8691064952192544</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="2:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="18">
         <v>2022</v>
       </c>
-      <c r="D14" s="32">
-        <v>365.5</v>
-      </c>
-      <c r="E14" s="32">
-        <v>338.4</v>
-      </c>
-      <c r="F14" s="32">
-        <v>703.9</v>
-      </c>
-      <c r="G14" s="33">
-        <v>13.059884005310602</v>
-      </c>
-      <c r="H14" s="33">
-        <v>12.90620566790934</v>
-      </c>
-      <c r="I14" s="33">
-        <v>12.980842651824956</v>
-      </c>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-    </row>
-    <row r="15" spans="2:12" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="28" t="s">
+      <c r="D14" s="19">
+        <v>375.4</v>
+      </c>
+      <c r="E14" s="19">
+        <v>393.1</v>
+      </c>
+      <c r="F14" s="19">
+        <v>768.5</v>
+      </c>
+      <c r="G14" s="20">
+        <v>11.586777369671902</v>
+      </c>
+      <c r="H14" s="20">
+        <v>14.835641770766502</v>
+      </c>
+      <c r="I14" s="20">
+        <v>14.931898109468204</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="15">
         <v>2021</v>
       </c>
-      <c r="D15" s="29">
-        <v>44</v>
-      </c>
-      <c r="E15" s="29">
-        <v>31.4</v>
-      </c>
-      <c r="F15" s="29">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="G15" s="30">
-        <v>20.74074074074074</v>
-      </c>
-      <c r="H15" s="30">
-        <v>19.38543247344461</v>
-      </c>
-      <c r="I15" s="30">
-        <v>20.071214392803597</v>
-      </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-    </row>
-    <row r="16" spans="2:12" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
+      <c r="D15" s="16">
+        <v>56.3</v>
+      </c>
+      <c r="E15" s="16">
+        <v>51.8</v>
+      </c>
+      <c r="F15" s="16">
+        <v>108.1</v>
+      </c>
+      <c r="G15" s="17">
+        <v>17.70440251572327</v>
+      </c>
+      <c r="H15" s="17">
+        <v>17.278185456971311</v>
+      </c>
+      <c r="I15" s="17">
+        <v>17.4975720297831</v>
+      </c>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="15">
         <v>2021</v>
       </c>
-      <c r="D16" s="29">
-        <v>163.80000000000001</v>
-      </c>
-      <c r="E16" s="29">
-        <v>139.80000000000001</v>
-      </c>
-      <c r="F16" s="29">
-        <v>303.60000000000002</v>
-      </c>
-      <c r="G16" s="30">
-        <v>17.365343948252271</v>
-      </c>
-      <c r="H16" s="30">
-        <v>17.9026503567788</v>
-      </c>
-      <c r="I16" s="30">
-        <v>17.630767294013978</v>
-      </c>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-    </row>
-    <row r="17" spans="2:12" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="28" t="s">
+      <c r="D16" s="16">
+        <v>140.69999999999999</v>
+      </c>
+      <c r="E16" s="16">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="F16" s="16">
+        <v>281.89999999999998</v>
+      </c>
+      <c r="G16" s="17">
+        <v>14.466378778531769</v>
+      </c>
+      <c r="H16" s="17">
+        <v>15.204048670184125</v>
+      </c>
+      <c r="I16" s="17">
+        <v>14.826697522747592</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="15">
         <v>2021</v>
       </c>
-      <c r="D17" s="29">
-        <v>104.2</v>
-      </c>
-      <c r="E17" s="29">
-        <v>91.1</v>
-      </c>
-      <c r="F17" s="29">
-        <v>195.3</v>
-      </c>
-      <c r="G17" s="30">
-        <v>11.680830972615675</v>
-      </c>
-      <c r="H17" s="30">
-        <v>12.07117960007338</v>
-      </c>
-      <c r="I17" s="30">
-        <v>11.87883863763261</v>
-      </c>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-    </row>
-    <row r="18" spans="2:12" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="s">
+      <c r="D17" s="16">
+        <v>124.1</v>
+      </c>
+      <c r="E17" s="16">
+        <v>131.9</v>
+      </c>
+      <c r="F17" s="16">
+        <v>256.10000000000002</v>
+      </c>
+      <c r="G17" s="17">
+        <v>10.625</v>
+      </c>
+      <c r="H17" s="17">
+        <v>11.136440391759541</v>
+      </c>
+      <c r="I17" s="17">
+        <v>10.886753953409285</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="15">
         <v>2021</v>
       </c>
-      <c r="D18" s="29">
-        <v>31</v>
-      </c>
-      <c r="E18" s="29">
-        <v>32</v>
-      </c>
-      <c r="F18" s="29">
-        <v>63</v>
-      </c>
-      <c r="G18" s="30">
-        <v>8.3412709212137699</v>
-      </c>
-      <c r="H18" s="30">
-        <v>8.1648697214734955</v>
-      </c>
-      <c r="I18" s="30">
-        <v>8.2446317602904085</v>
-      </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-    </row>
-    <row r="19" spans="2:12" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="31" t="s">
+      <c r="D18" s="16">
+        <v>61.6</v>
+      </c>
+      <c r="E18" s="16">
+        <v>72.7</v>
+      </c>
+      <c r="F18" s="16">
+        <v>134.30000000000001</v>
+      </c>
+      <c r="G18" s="17">
+        <v>8.0250130276185505</v>
+      </c>
+      <c r="H18" s="17">
+        <v>7.870520731839342</v>
+      </c>
+      <c r="I18" s="17">
+        <v>7.9406373795305392</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="2:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="18">
         <v>2021</v>
       </c>
-      <c r="D19" s="32">
-        <v>343</v>
-      </c>
-      <c r="E19" s="32">
-        <v>294.39999999999998</v>
-      </c>
-      <c r="F19" s="32">
-        <v>637.4</v>
-      </c>
-      <c r="G19" s="33">
-        <v>13.275447222512815</v>
-      </c>
-      <c r="H19" s="33">
-        <v>13.070320237702211</v>
-      </c>
-      <c r="I19" s="33">
-        <v>13.170078179320635</v>
-      </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-    </row>
-    <row r="20" spans="2:12" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="28" t="s">
+      <c r="D19" s="19">
+        <v>382.7</v>
+      </c>
+      <c r="E19" s="19">
+        <v>397.6</v>
+      </c>
+      <c r="F19" s="19">
+        <v>780.4</v>
+      </c>
+      <c r="G19" s="20">
+        <v>11.861885131574867</v>
+      </c>
+      <c r="H19" s="20">
+        <v>11.917036326579547</v>
+      </c>
+      <c r="I19" s="20">
+        <v>11.891447117802125</v>
+      </c>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="15">
         <v>2019</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="16">
         <v>45.657209999999999</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="16">
         <v>47.936019999999999</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="16">
         <v>93.593230000000005</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="17">
         <v>16.744907252997706</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="17">
         <v>18.049068776728038</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="17">
         <v>17.388415519852394</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="2:12" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="28" t="s">
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="15">
         <v>2019</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="16">
         <v>137.26588000000001</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="16">
         <v>128.84900999999999</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="16">
         <v>266.11489</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="17">
         <v>17.006233497576577</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="17">
         <v>16.473065850963444</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="17">
         <v>16.743838060243601</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="2:12" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="28" t="s">
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="15">
         <v>2019</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="16">
         <v>107.7658</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="16">
         <v>115.80685000000001</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="16">
         <v>223.57265000000001</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="17">
         <v>9.8662317726120019</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="17">
         <v>10.373193698698781</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="17">
         <v>10.122482717074153</v>
       </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="2:12" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="28" t="s">
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="15">
         <v>2019</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="16">
         <v>44.276629999999997</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="16">
         <v>56.083379999999998</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="16">
         <v>100.36000999999999</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="17">
         <v>6.1769622035587552</v>
       </c>
-      <c r="H23" s="30">
+      <c r="H23" s="17">
         <v>6.4387895782163893</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="17">
         <v>6.3205911588617578</v>
       </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="2:12" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="31" t="s">
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="2:12" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="18">
         <v>2019</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="19">
         <v>334.96552000000003</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="19">
         <v>348.67526000000004</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="19">
         <v>683.64078000000006</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="20">
         <v>11.594974270717092</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="20">
         <v>11.487735548811754</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="20">
         <v>11.540030642557959</v>
       </c>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-    </row>
-    <row r="25" spans="2:12" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="36" t="s">
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+    </row>
+    <row r="25" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="23">
         <v>2018</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="24">
         <v>47.080760000000005</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="24">
         <v>42.174160000000001</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="24">
         <v>89.254919999999998</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25" s="25">
         <v>16.781549632752697</v>
       </c>
-      <c r="H25" s="38">
+      <c r="H25" s="25">
         <v>16.316953944920296</v>
       </c>
-      <c r="I25" s="38">
+      <c r="I25" s="25">
         <v>16.558768505166249</v>
       </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="2:12" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="36" t="s">
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="23">
         <v>2018</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="24">
         <v>137.56186</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="24">
         <v>133.2397</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="24">
         <v>270.80155999999999</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="25">
         <v>17.241570946074667</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="25">
         <v>17.123951133140565</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="25">
         <v>17.183498438855164</v>
       </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-    </row>
-    <row r="27" spans="2:12" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="36" t="s">
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="23">
         <v>2018</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D27" s="24">
         <v>103.33179</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="24">
         <v>114.24866</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="24">
         <v>217.58044999999998</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="25">
         <v>9.4200431598790022</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H27" s="25">
         <v>10.257158554915771</v>
       </c>
-      <c r="I27" s="38">
+      <c r="I27" s="25">
         <v>9.8418019327751871</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="2:12" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="36" t="s">
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="23">
         <v>2018</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="24">
         <v>40.9163</v>
       </c>
-      <c r="E28" s="37">
+      <c r="E28" s="24">
         <v>52.757599999999996</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="24">
         <v>93.673900000000003</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="25">
         <v>5.6662749446833898</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H28" s="25">
         <v>5.9866551205358798</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="25">
         <v>5.8423657024713487</v>
       </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-    </row>
-    <row r="29" spans="2:12" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="39" t="s">
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="2:12" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="39">
+      <c r="C29" s="26">
         <v>2018</v>
       </c>
-      <c r="D29" s="40">
+      <c r="D29" s="27">
         <v>328.89071000000001</v>
       </c>
-      <c r="E29" s="40">
+      <c r="E29" s="27">
         <v>342.42012</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F29" s="27">
         <v>671.31083000000001</v>
       </c>
-      <c r="G29" s="41">
+      <c r="G29" s="28">
         <v>11.351085731819232</v>
       </c>
-      <c r="H29" s="41">
+      <c r="H29" s="28">
         <v>11.294826375948235</v>
       </c>
-      <c r="I29" s="41">
+      <c r="I29" s="28">
         <v>11.322319285430122</v>
       </c>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-    </row>
-    <row r="30" spans="2:12" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="36" t="s">
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+    </row>
+    <row r="30" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="23">
         <v>2017</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="24">
         <v>53.054550000000006</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="24">
         <v>42.716800000000006</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="24">
         <v>95.771350000000012</v>
       </c>
-      <c r="G30" s="38">
+      <c r="G30" s="25">
         <v>18.439419952897143</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H30" s="25">
         <v>16.111910732120929</v>
       </c>
-      <c r="I30" s="38">
+      <c r="I30" s="25">
         <v>17.323234279124218</v>
       </c>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-    </row>
-    <row r="31" spans="2:12" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="36" t="s">
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="23">
         <v>2017</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="24">
         <v>144.42716000000001</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="24">
         <v>137.24038000000002</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="24">
         <v>281.66754000000003</v>
       </c>
-      <c r="G31" s="38">
+      <c r="G31" s="25">
         <v>17.820437552845892</v>
       </c>
-      <c r="H31" s="38">
+      <c r="H31" s="25">
         <v>17.486430438862701</v>
       </c>
-      <c r="I31" s="38">
+      <c r="I31" s="25">
         <v>17.656115885108061</v>
       </c>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-    </row>
-    <row r="32" spans="2:12" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="36" t="s">
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="23">
         <v>2017</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="24">
         <v>110.92681</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="24">
         <v>121.26992999999999</v>
       </c>
-      <c r="F32" s="37">
+      <c r="F32" s="24">
         <v>232.19673999999998</v>
       </c>
-      <c r="G32" s="38">
+      <c r="G32" s="25">
         <v>9.9407784816758706</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H32" s="25">
         <v>10.773958080048111</v>
       </c>
-      <c r="I32" s="38">
+      <c r="I32" s="25">
         <v>10.359172452359093</v>
       </c>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-    </row>
-    <row r="33" spans="2:11" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="36" t="s">
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="23">
         <v>2017</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="24">
         <v>41.625620000000005</v>
       </c>
-      <c r="E33" s="37">
+      <c r="E33" s="24">
         <v>50.156440000000003</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="24">
         <v>91.782060000000001</v>
       </c>
-      <c r="G33" s="38">
+      <c r="G33" s="25">
         <v>5.9378318761718667</v>
       </c>
-      <c r="H33" s="38">
+      <c r="H33" s="25">
         <v>5.7947360652354281</v>
       </c>
-      <c r="I33" s="38">
+      <c r="I33" s="25">
         <v>5.8587697312925808</v>
       </c>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-    </row>
-    <row r="34" spans="2:11" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="39" t="s">
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="2:11" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="26">
         <v>2017</v>
       </c>
-      <c r="D34" s="40">
+      <c r="D34" s="27">
         <v>350.03414000000004</v>
       </c>
-      <c r="E34" s="40">
+      <c r="E34" s="27">
         <v>351.38353999999998</v>
       </c>
-      <c r="F34" s="40">
+      <c r="F34" s="27">
         <v>701.41768000000002</v>
       </c>
-      <c r="G34" s="41">
+      <c r="G34" s="28">
         <v>12.007694836952282</v>
       </c>
-      <c r="H34" s="41">
+      <c r="H34" s="28">
         <v>11.554486278898048</v>
       </c>
-      <c r="I34" s="41">
+      <c r="I34" s="28">
         <v>11.776296152756677</v>
       </c>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-    </row>
-    <row r="35" spans="2:11" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="36" t="s">
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+    </row>
+    <row r="35" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="23">
         <v>2016</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="24">
         <v>44.005269999999996</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="24">
         <v>35.384910000000005</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="24">
         <v>79.390180000000001</v>
       </c>
-      <c r="G35" s="38">
+      <c r="G35" s="25">
         <v>15.344135589650715</v>
       </c>
-      <c r="H35" s="38">
+      <c r="H35" s="25">
         <v>13.504670773150378</v>
       </c>
-      <c r="I35" s="38">
+      <c r="I35" s="25">
         <v>14.465912927318344</v>
       </c>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-    </row>
-    <row r="36" spans="2:11" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="36" t="s">
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="36">
+      <c r="C36" s="23">
         <v>2016</v>
       </c>
-      <c r="D36" s="37">
+      <c r="D36" s="24">
         <v>116.25483</v>
       </c>
-      <c r="E36" s="37">
+      <c r="E36" s="24">
         <v>111.55392000000001</v>
       </c>
-      <c r="F36" s="37">
+      <c r="F36" s="24">
         <v>227.80875</v>
       </c>
-      <c r="G36" s="38">
+      <c r="G36" s="25">
         <v>14.034230462259533</v>
       </c>
-      <c r="H36" s="38">
+      <c r="H36" s="25">
         <v>13.907508011371913</v>
       </c>
-      <c r="I36" s="38">
+      <c r="I36" s="25">
         <v>13.971889454167153</v>
       </c>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-    </row>
-    <row r="37" spans="2:11" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="36" t="s">
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="36">
+      <c r="C37" s="23">
         <v>2016</v>
       </c>
-      <c r="D37" s="37">
+      <c r="D37" s="24">
         <v>96.441009999999991</v>
       </c>
-      <c r="E37" s="37">
+      <c r="E37" s="24">
         <v>103.83453</v>
       </c>
-      <c r="F37" s="37">
+      <c r="F37" s="24">
         <v>200.27553999999998</v>
       </c>
-      <c r="G37" s="38">
+      <c r="G37" s="25">
         <v>8.5520009060556745</v>
       </c>
-      <c r="H37" s="38">
+      <c r="H37" s="25">
         <v>9.1208636156057601</v>
       </c>
-      <c r="I37" s="38">
+      <c r="I37" s="25">
         <v>8.8377787251492101</v>
       </c>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-    </row>
-    <row r="38" spans="2:11" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="36" t="s">
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="36">
+      <c r="C38" s="23">
         <v>2016</v>
       </c>
-      <c r="D38" s="37">
+      <c r="D38" s="24">
         <v>37.959120000000006</v>
       </c>
-      <c r="E38" s="37">
+      <c r="E38" s="24">
         <v>50.489629999999998</v>
       </c>
-      <c r="F38" s="37">
+      <c r="F38" s="24">
         <v>88.448750000000004</v>
       </c>
-      <c r="G38" s="38">
+      <c r="G38" s="25">
         <v>5.3032939010692299</v>
       </c>
-      <c r="H38" s="38">
+      <c r="H38" s="25">
         <v>5.4756996019379063</v>
       </c>
-      <c r="I38" s="38">
+      <c r="I38" s="25">
         <v>5.4003549093800007</v>
       </c>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-    </row>
-    <row r="39" spans="2:11" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="39" t="s">
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="2:11" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="39">
+      <c r="C39" s="26">
         <v>2016</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D39" s="27">
         <v>294.66022999999996</v>
       </c>
-      <c r="E39" s="40">
+      <c r="E39" s="27">
         <v>301.26299</v>
       </c>
-      <c r="F39" s="40">
+      <c r="F39" s="27">
         <v>595.9232199999999</v>
       </c>
-      <c r="G39" s="41">
+      <c r="G39" s="28">
         <v>9.9593766853289623</v>
       </c>
-      <c r="H39" s="41">
+      <c r="H39" s="28">
         <v>9.6415614985949905</v>
       </c>
-      <c r="I39" s="41">
+      <c r="I39" s="28">
         <v>9.7961326204420125</v>
       </c>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-    </row>
-    <row r="40" spans="2:11" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="36" t="s">
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+    </row>
+    <row r="40" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="23">
         <v>2015</v>
       </c>
-      <c r="D40" s="37">
+      <c r="D40" s="24">
         <v>39.851529999999997</v>
       </c>
-      <c r="E40" s="37">
+      <c r="E40" s="24">
         <v>36.345699999999994</v>
       </c>
-      <c r="F40" s="37">
+      <c r="F40" s="24">
         <v>76.19722999999999</v>
       </c>
-      <c r="G40" s="38">
+      <c r="G40" s="25">
         <v>14.319157564260006</v>
       </c>
-      <c r="H40" s="38">
+      <c r="H40" s="25">
         <v>14.011435995146496</v>
       </c>
-      <c r="I40" s="38">
+      <c r="I40" s="25">
         <v>14.17070740232322</v>
       </c>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-    </row>
-    <row r="41" spans="2:11" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="36" t="s">
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C41" s="23">
         <v>2015</v>
       </c>
-      <c r="D41" s="37">
+      <c r="D41" s="24">
         <v>106.21704</v>
       </c>
-      <c r="E41" s="37">
+      <c r="E41" s="24">
         <v>107.25866000000001</v>
       </c>
-      <c r="F41" s="37">
+      <c r="F41" s="24">
         <v>213.47570000000002</v>
       </c>
-      <c r="G41" s="38">
+      <c r="G41" s="25">
         <v>12.6894189278841</v>
       </c>
-      <c r="H41" s="38">
+      <c r="H41" s="25">
         <v>13.087934705056975</v>
       </c>
-      <c r="I41" s="38">
+      <c r="I41" s="25">
         <v>12.886568393274841</v>
       </c>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-    </row>
-    <row r="42" spans="2:11" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="36" t="s">
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+    </row>
+    <row r="42" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="36">
+      <c r="C42" s="23">
         <v>2015</v>
       </c>
-      <c r="D42" s="37">
+      <c r="D42" s="24">
         <v>93.883449999999996</v>
       </c>
-      <c r="E42" s="37">
+      <c r="E42" s="24">
         <v>100.07469</v>
       </c>
-      <c r="F42" s="37">
+      <c r="F42" s="24">
         <v>193.95814000000001</v>
       </c>
-      <c r="G42" s="38">
+      <c r="G42" s="25">
         <v>8.4355978708858963</v>
       </c>
-      <c r="H42" s="38">
+      <c r="H42" s="25">
         <v>8.8227195460663896</v>
       </c>
-      <c r="I42" s="38">
+      <c r="I42" s="25">
         <v>8.6309968153336616</v>
       </c>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-    </row>
-    <row r="43" spans="2:11" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="36" t="s">
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+    </row>
+    <row r="43" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="36">
+      <c r="C43" s="23">
         <v>2015</v>
       </c>
-      <c r="D43" s="37">
+      <c r="D43" s="24">
         <v>33.258040000000001</v>
       </c>
-      <c r="E43" s="37">
+      <c r="E43" s="24">
         <v>44.901480000000006</v>
       </c>
-      <c r="F43" s="37">
+      <c r="F43" s="24">
         <v>78.159520000000015</v>
       </c>
-      <c r="G43" s="38">
+      <c r="G43" s="25">
         <v>4.5546291419798681</v>
       </c>
-      <c r="H43" s="38">
+      <c r="H43" s="25">
         <v>4.8383188428484809</v>
       </c>
-      <c r="I43" s="38">
+      <c r="I43" s="25">
         <v>4.7133967323259851</v>
       </c>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-    </row>
-    <row r="44" spans="2:11" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="39" t="s">
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" spans="2:11" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="39">
+      <c r="C44" s="26">
         <v>2015</v>
       </c>
-      <c r="D44" s="40">
+      <c r="D44" s="27">
         <v>273.21007000000003</v>
       </c>
-      <c r="E44" s="40">
+      <c r="E44" s="27">
         <v>288.58053999999998</v>
       </c>
-      <c r="F44" s="40">
+      <c r="F44" s="27">
         <v>561.79061000000002</v>
       </c>
-      <c r="G44" s="41">
+      <c r="G44" s="28">
         <v>9.2347250762275301</v>
       </c>
-      <c r="H44" s="41">
+      <c r="H44" s="28">
         <v>9.1868168565262902</v>
       </c>
-      <c r="I44" s="41">
+      <c r="I44" s="28">
         <v>9.2100533415925501</v>
       </c>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-    </row>
-    <row r="45" spans="2:11" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="36" t="s">
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+    </row>
+    <row r="45" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="36">
+      <c r="C45" s="23">
         <v>2014</v>
       </c>
-      <c r="D45" s="37">
+      <c r="D45" s="24">
         <v>36.484699999999997</v>
       </c>
-      <c r="E45" s="37">
+      <c r="E45" s="24">
         <v>37.825530000000001</v>
       </c>
-      <c r="F45" s="37">
+      <c r="F45" s="24">
         <v>74.31022999999999</v>
       </c>
-      <c r="G45" s="38">
+      <c r="G45" s="25">
         <v>12.953367599713259</v>
       </c>
-      <c r="H45" s="30">
+      <c r="H45" s="17">
         <v>14.363902403236123</v>
       </c>
-      <c r="I45" s="38">
+      <c r="I45" s="25">
         <v>13.634921849717568</v>
       </c>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-    </row>
-    <row r="46" spans="2:11" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="36" t="s">
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+    </row>
+    <row r="46" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="36">
+      <c r="C46" s="23">
         <v>2014</v>
       </c>
-      <c r="D46" s="37">
+      <c r="D46" s="24">
         <v>107.87508</v>
       </c>
-      <c r="E46" s="37">
+      <c r="E46" s="24">
         <v>109.11467999999999</v>
       </c>
-      <c r="F46" s="37">
+      <c r="F46" s="24">
         <v>216.98975999999999</v>
       </c>
-      <c r="G46" s="38">
+      <c r="G46" s="25">
         <v>12.740997185585199</v>
       </c>
-      <c r="H46" s="30">
+      <c r="H46" s="17">
         <v>13.151221654628973</v>
       </c>
-      <c r="I46" s="38">
+      <c r="I46" s="25">
         <v>12.944031274732581</v>
       </c>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-    </row>
-    <row r="47" spans="2:11" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="36" t="s">
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+    </row>
+    <row r="47" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="36">
+      <c r="C47" s="23">
         <v>2014</v>
       </c>
-      <c r="D47" s="37">
+      <c r="D47" s="24">
         <v>93.629410000000007</v>
       </c>
-      <c r="E47" s="37">
+      <c r="E47" s="24">
         <v>99.10548</v>
       </c>
-      <c r="F47" s="37">
+      <c r="F47" s="24">
         <v>192.73489000000001</v>
       </c>
-      <c r="G47" s="38">
+      <c r="G47" s="25">
         <v>8.6036560503302084</v>
       </c>
-      <c r="H47" s="30">
+      <c r="H47" s="17">
         <v>9.0061574992793894</v>
       </c>
-      <c r="I47" s="38">
+      <c r="I47" s="25">
         <v>8.8060256085319679</v>
       </c>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-    </row>
-    <row r="48" spans="2:11" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="36" t="s">
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="36">
+      <c r="C48" s="23">
         <v>2014</v>
       </c>
-      <c r="D48" s="37">
+      <c r="D48" s="24">
         <v>35.691549999999999</v>
       </c>
-      <c r="E48" s="37">
+      <c r="E48" s="24">
         <v>45.269220000000004</v>
       </c>
-      <c r="F48" s="37">
+      <c r="F48" s="24">
         <v>80.960769999999997</v>
       </c>
-      <c r="G48" s="38">
+      <c r="G48" s="25">
         <v>4.9045488312654397</v>
       </c>
-      <c r="H48" s="30">
+      <c r="H48" s="17">
         <v>4.8487417153852039</v>
       </c>
-      <c r="I48" s="38">
+      <c r="I48" s="25">
         <v>4.8731869589002903</v>
       </c>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-    </row>
-    <row r="49" spans="2:11" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="39" t="s">
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+    </row>
+    <row r="49" spans="2:11" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="39">
+      <c r="C49" s="26">
         <v>2014</v>
       </c>
-      <c r="D49" s="40">
+      <c r="D49" s="27">
         <v>273.68074000000001</v>
       </c>
-      <c r="E49" s="40">
+      <c r="E49" s="27">
         <v>291.31491</v>
       </c>
-      <c r="F49" s="40">
+      <c r="F49" s="27">
         <v>564.99565000000007</v>
       </c>
-      <c r="G49" s="41">
+      <c r="G49" s="28">
         <v>9.2952305176292285</v>
       </c>
-      <c r="H49" s="33">
+      <c r="H49" s="20">
         <v>9.3158851418018607</v>
       </c>
-      <c r="I49" s="41">
+      <c r="I49" s="28">
         <v>9.3058687066249792</v>
       </c>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-    </row>
-    <row r="50" spans="2:11" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="36" t="s">
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+    </row>
+    <row r="50" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="36">
+      <c r="C50" s="23">
         <v>2013</v>
       </c>
-      <c r="D50" s="37">
+      <c r="D50" s="24">
         <v>43.561419999999998</v>
       </c>
-      <c r="E50" s="37">
+      <c r="E50" s="24">
         <v>42.883629999999997</v>
       </c>
-      <c r="F50" s="37">
+      <c r="F50" s="24">
         <v>86.445049999999995</v>
       </c>
-      <c r="G50" s="38">
+      <c r="G50" s="25">
         <v>15.410178444827608</v>
       </c>
-      <c r="H50" s="38">
+      <c r="H50" s="25">
         <v>16.02359678447684</v>
       </c>
-      <c r="I50" s="38">
+      <c r="I50" s="25">
         <v>15.708498768106965</v>
       </c>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-    </row>
-    <row r="51" spans="2:11" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="36" t="s">
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+    </row>
+    <row r="51" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="36">
+      <c r="C51" s="23">
         <v>2013</v>
       </c>
-      <c r="D51" s="37">
+      <c r="D51" s="24">
         <v>109.29798</v>
       </c>
-      <c r="E51" s="37">
+      <c r="E51" s="24">
         <v>106.54449000000001</v>
       </c>
-      <c r="F51" s="37">
+      <c r="F51" s="24">
         <v>215.84246999999999</v>
       </c>
-      <c r="G51" s="38">
+      <c r="G51" s="25">
         <v>12.743843612869247</v>
       </c>
-      <c r="H51" s="38">
+      <c r="H51" s="25">
         <v>12.6541880616247</v>
       </c>
-      <c r="I51" s="38">
+      <c r="I51" s="25">
         <v>12.699429478305122</v>
       </c>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-    </row>
-    <row r="52" spans="2:11" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="36" t="s">
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+    </row>
+    <row r="52" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="36">
+      <c r="C52" s="23">
         <v>2013</v>
       </c>
-      <c r="D52" s="37">
+      <c r="D52" s="24">
         <v>95.905460000000005</v>
       </c>
-      <c r="E52" s="37">
+      <c r="E52" s="24">
         <v>100.40627000000001</v>
       </c>
-      <c r="F52" s="37">
+      <c r="F52" s="24">
         <v>196.31173000000001</v>
       </c>
-      <c r="G52" s="38">
+      <c r="G52" s="25">
         <v>8.8746589454064946</v>
       </c>
-      <c r="H52" s="38">
+      <c r="H52" s="25">
         <v>9.1661793558104687</v>
       </c>
-      <c r="I52" s="38">
+      <c r="I52" s="25">
         <v>9.0214060118099653</v>
       </c>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-    </row>
-    <row r="53" spans="2:11" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="36" t="s">
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+    </row>
+    <row r="53" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="36">
+      <c r="C53" s="23">
         <v>2013</v>
       </c>
-      <c r="D53" s="37">
+      <c r="D53" s="24">
         <v>32.456249999999997</v>
       </c>
-      <c r="E53" s="37">
+      <c r="E53" s="24">
         <v>46.073459999999997</v>
       </c>
-      <c r="F53" s="37">
+      <c r="F53" s="24">
         <v>78.529709999999994</v>
       </c>
-      <c r="G53" s="38">
+      <c r="G53" s="25">
         <v>4.5794359596648713</v>
       </c>
-      <c r="H53" s="38">
+      <c r="H53" s="25">
         <v>4.9825264553691939</v>
       </c>
-      <c r="I53" s="38">
+      <c r="I53" s="25">
         <v>4.8076280791470127</v>
       </c>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-    </row>
-    <row r="54" spans="2:11" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="39" t="s">
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+    </row>
+    <row r="54" spans="2:11" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="39">
+      <c r="C54" s="26">
         <v>2013</v>
       </c>
-      <c r="D54" s="40">
+      <c r="D54" s="27">
         <v>281.22111000000001</v>
       </c>
-      <c r="E54" s="40">
+      <c r="E54" s="27">
         <v>295.90785999999997</v>
       </c>
-      <c r="F54" s="40">
+      <c r="F54" s="27">
         <v>577.12896999999998</v>
       </c>
-      <c r="G54" s="41">
+      <c r="G54" s="28">
         <v>9.5988478724704596</v>
       </c>
-      <c r="H54" s="41">
+      <c r="H54" s="28">
         <v>9.4548366194110027</v>
       </c>
-      <c r="I54" s="41">
+      <c r="I54" s="28">
         <v>9.5244660755135637</v>
       </c>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-    </row>
-    <row r="55" spans="2:11" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="36" t="s">
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+    </row>
+    <row r="55" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="36">
+      <c r="C55" s="23">
         <v>2012</v>
       </c>
-      <c r="D55" s="37">
+      <c r="D55" s="24">
         <v>46.041519999999998</v>
       </c>
-      <c r="E55" s="37">
+      <c r="E55" s="24">
         <v>39.716989999999996</v>
       </c>
-      <c r="F55" s="37">
+      <c r="F55" s="24">
         <v>85.758510000000001</v>
       </c>
-      <c r="G55" s="38">
+      <c r="G55" s="25">
         <v>15.829973271126754</v>
       </c>
-      <c r="H55" s="38">
+      <c r="H55" s="25">
         <v>14.790328045812377</v>
       </c>
-      <c r="I55" s="38">
+      <c r="I55" s="25">
         <v>15.330889096180472</v>
       </c>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-    </row>
-    <row r="56" spans="2:11" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="36" t="s">
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+    </row>
+    <row r="56" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="36">
+      <c r="C56" s="23">
         <v>2012</v>
       </c>
-      <c r="D56" s="37">
+      <c r="D56" s="24">
         <v>101.17434</v>
       </c>
-      <c r="E56" s="37">
+      <c r="E56" s="24">
         <v>105.36062</v>
       </c>
-      <c r="F56" s="37">
+      <c r="F56" s="24">
         <v>206.53496000000001</v>
       </c>
-      <c r="G56" s="38">
+      <c r="G56" s="25">
         <v>11.689085286571911</v>
       </c>
-      <c r="H56" s="38">
+      <c r="H56" s="25">
         <v>12.196344808456583</v>
       </c>
-      <c r="I56" s="38">
+      <c r="I56" s="25">
         <v>11.942469406982308</v>
       </c>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-    </row>
-    <row r="57" spans="2:11" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="36" t="s">
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+    </row>
+    <row r="57" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="36">
+      <c r="C57" s="23">
         <v>2012</v>
       </c>
-      <c r="D57" s="37">
+      <c r="D57" s="24">
         <v>93.794139999999999</v>
       </c>
-      <c r="E57" s="37">
+      <c r="E57" s="24">
         <v>98.775850000000005</v>
       </c>
-      <c r="F57" s="37">
+      <c r="F57" s="24">
         <v>192.56999000000002</v>
       </c>
-      <c r="G57" s="38">
+      <c r="G57" s="25">
         <v>8.6753229662419784</v>
       </c>
-      <c r="H57" s="38">
+      <c r="H57" s="25">
         <v>9.1959978691350237</v>
       </c>
-      <c r="I57" s="38">
+      <c r="I57" s="25">
         <v>8.9348097603427039</v>
       </c>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-    </row>
-    <row r="58" spans="2:11" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="36" t="s">
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+    </row>
+    <row r="58" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="36">
+      <c r="C58" s="23">
         <v>2012</v>
       </c>
-      <c r="D58" s="37">
+      <c r="D58" s="24">
         <v>30.689880000000002</v>
       </c>
-      <c r="E58" s="37">
+      <c r="E58" s="24">
         <v>45.083239999999996</v>
       </c>
-      <c r="F58" s="37">
+      <c r="F58" s="24">
         <v>75.773120000000006</v>
       </c>
-      <c r="G58" s="38">
+      <c r="G58" s="25">
         <v>4.4626134481040376</v>
       </c>
-      <c r="H58" s="38">
+      <c r="H58" s="25">
         <v>4.8949431553146123</v>
       </c>
-      <c r="I58" s="38">
+      <c r="I58" s="25">
         <v>4.7101276080597216</v>
       </c>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-    </row>
-    <row r="59" spans="2:11" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="39" t="s">
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+    </row>
+    <row r="59" spans="2:11" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="39">
+      <c r="C59" s="26">
         <v>2012</v>
       </c>
-      <c r="D59" s="40">
+      <c r="D59" s="27">
         <v>271.69988000000001</v>
       </c>
-      <c r="E59" s="40">
+      <c r="E59" s="27">
         <v>288.93670000000003</v>
       </c>
-      <c r="F59" s="40">
+      <c r="F59" s="27">
         <v>560.63658000000009</v>
       </c>
-      <c r="G59" s="41">
+      <c r="G59" s="28">
         <v>9.2880375902806556</v>
       </c>
-      <c r="H59" s="41">
+      <c r="H59" s="28">
         <v>9.2384700720590036</v>
       </c>
-      <c r="I59" s="41">
+      <c r="I59" s="28">
         <v>9.2624256117437511</v>
       </c>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
     </row>
     <row r="60" spans="2:11" s="7" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="36">
+      <c r="C60" s="23">
         <v>2011</v>
       </c>
-      <c r="D60" s="37">
+      <c r="D60" s="24">
         <v>49.395949999999999</v>
       </c>
-      <c r="E60" s="37">
+      <c r="E60" s="24">
         <v>43.41377</v>
       </c>
-      <c r="F60" s="37">
+      <c r="F60" s="24">
         <v>92.809719999999999</v>
       </c>
-      <c r="G60" s="38">
+      <c r="G60" s="25">
         <v>16.374816331764272</v>
       </c>
-      <c r="H60" s="38">
+      <c r="H60" s="25">
         <v>15.398537063837336</v>
       </c>
-      <c r="I60" s="38">
+      <c r="I60" s="25">
         <v>15.903174342120485</v>
       </c>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
     </row>
     <row r="61" spans="2:11" s="7" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="36">
+      <c r="C61" s="23">
         <v>2011</v>
       </c>
-      <c r="D61" s="37">
+      <c r="D61" s="24">
         <v>101.92383</v>
       </c>
-      <c r="E61" s="37">
+      <c r="E61" s="24">
         <v>104.17531</v>
       </c>
-      <c r="F61" s="37">
+      <c r="F61" s="24">
         <v>206.09913999999998</v>
       </c>
-      <c r="G61" s="38">
+      <c r="G61" s="25">
         <v>11.536175825357917</v>
       </c>
-      <c r="H61" s="38">
+      <c r="H61" s="25">
         <v>11.835846259409939</v>
       </c>
-      <c r="I61" s="38">
+      <c r="I61" s="25">
         <v>11.685726689953926</v>
       </c>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
     </row>
     <row r="62" spans="2:11" s="7" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="36">
+      <c r="C62" s="23">
         <v>2011</v>
       </c>
-      <c r="D62" s="37">
+      <c r="D62" s="24">
         <v>86.011289999999988</v>
       </c>
-      <c r="E62" s="37">
+      <c r="E62" s="24">
         <v>96.004519999999999</v>
       </c>
-      <c r="F62" s="37">
+      <c r="F62" s="24">
         <v>182.01580999999999</v>
       </c>
-      <c r="G62" s="38">
+      <c r="G62" s="25">
         <v>8.1601077357144955</v>
       </c>
-      <c r="H62" s="38">
+      <c r="H62" s="25">
         <v>9.089852014992287</v>
       </c>
-      <c r="I62" s="38">
+      <c r="I62" s="25">
         <v>8.6254483386351062</v>
       </c>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
     </row>
     <row r="63" spans="2:11" s="7" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="36">
+      <c r="C63" s="23">
         <v>2011</v>
       </c>
-      <c r="D63" s="37">
+      <c r="D63" s="24">
         <v>31.317979999999999</v>
       </c>
-      <c r="E63" s="37">
+      <c r="E63" s="24">
         <v>42.319459999999999</v>
       </c>
-      <c r="F63" s="37">
+      <c r="F63" s="24">
         <v>73.637439999999998</v>
       </c>
-      <c r="G63" s="38">
+      <c r="G63" s="25">
         <v>4.5506122254154278</v>
       </c>
-      <c r="H63" s="38">
+      <c r="H63" s="25">
         <v>4.6011067847012033</v>
       </c>
-      <c r="I63" s="38">
+      <c r="I63" s="25">
         <v>4.5794951597736251</v>
       </c>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
     </row>
-    <row r="64" spans="2:11" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="39" t="s">
+    <row r="64" spans="2:11" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="39">
+      <c r="C64" s="26">
         <v>2011</v>
       </c>
-      <c r="D64" s="40">
+      <c r="D64" s="27">
         <v>268.64904999999999</v>
       </c>
-      <c r="E64" s="40">
+      <c r="E64" s="27">
         <v>285.91305999999997</v>
       </c>
-      <c r="F64" s="40">
+      <c r="F64" s="27">
         <v>554.56210999999996</v>
       </c>
-      <c r="G64" s="41">
+      <c r="G64" s="28">
         <v>9.1769477795528598</v>
       </c>
-      <c r="H64" s="41">
+      <c r="H64" s="28">
         <v>9.1111938031645465</v>
       </c>
-      <c r="I64" s="41">
+      <c r="I64" s="28">
         <v>9.142929222004609</v>
       </c>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
     </row>
     <row r="65" spans="2:11" s="7" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="44"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="46"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
     </row>
     <row r="66" spans="2:11" s="7" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="47"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="49"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
     </row>
-    <row r="67" spans="2:11" s="51" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="50" t="s">
+    <row r="67" spans="2:11" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="50"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="50"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
       <c r="K67" s="8"/>
     </row>
-    <row r="68" spans="2:11" s="51" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="50" t="s">
+    <row r="68" spans="2:11" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="50"/>
-      <c r="J68" s="50"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="2:11" s="51" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="52" t="s">
+    <row r="69" spans="2:11" s="37" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="53"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="39"/>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="2:11" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="54"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="53"/>
-    </row>
-    <row r="71" spans="2:11" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="55" t="s">
+    <row r="70" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+    </row>
+    <row r="71" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C71" s="55"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
-      <c r="F71" s="53"/>
-      <c r="G71" s="53"/>
-      <c r="H71" s="53"/>
-      <c r="I71" s="53"/>
-      <c r="J71" s="53"/>
-    </row>
-    <row r="72" spans="2:11" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="2:11" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="15" t="s">
+      <c r="C71" s="41"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="39"/>
+    </row>
+    <row r="72" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="2:11" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="15" t="s">
+    <row r="74" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="2:11" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="B75" s="15" t="s">
+    <row r="75" spans="2:11" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
+      <c r="B75" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="2:11" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="B76" s="15" t="s">
+    <row r="76" spans="2:11" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
+      <c r="B76" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="2:11" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="2:11" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="2:11" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="2:11" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="81" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="82" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="83" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="84" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="85" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="86" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="87" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="88" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="89" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="90" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="91" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="92" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="93" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="94" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="95" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="96" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="97" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="98" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="99" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="100" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="101" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="102" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="103" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="104" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="105" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="106" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="107" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="108" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="109" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="110" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="111" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="112" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="113" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="114" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="115" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="116" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="117" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="118" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="119" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="120" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="121" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="122" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="123" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="124" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="125" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="126" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="127" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="128" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="129" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="130" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="131" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="132" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="133" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="134" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="135" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="136" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="137" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="138" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="139" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="140" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="141" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="142" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="143" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="144" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="145" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="146" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="147" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="148" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="149" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="150" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="151" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="152" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="153" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="154" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="155" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="156" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="157" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="158" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="159" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="160" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="161" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="162" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="163" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="164" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="165" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="166" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="167" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="168" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="169" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="170" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="171" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="172" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="173" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="174" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="175" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="176" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="177" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="178" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="179" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="180" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="181" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="182" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="183" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="184" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="185" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="186" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="187" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="188" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="189" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="190" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="191" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="192" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="193" spans="2:10" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="194" spans="2:10" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="195" spans="2:10" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="196" spans="2:10" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="197" spans="2:10" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="198" spans="2:10" s="15" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="2:11" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="2:11" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="2:11" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="2:11" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="81" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="82" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="83" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="84" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="85" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="86" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="87" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="88" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="89" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="90" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="91" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="92" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="93" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="94" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="95" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="96" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="97" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="98" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="99" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="100" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="101" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="102" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="103" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="104" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="105" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="106" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="107" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="108" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="109" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="110" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="111" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="112" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="113" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="114" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="115" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="116" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="117" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="118" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="119" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="120" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="121" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="122" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="123" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="124" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="125" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="126" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="127" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="128" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="129" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="130" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="131" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="132" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="133" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="134" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="135" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="136" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="137" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="138" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="139" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="140" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="141" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="142" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="143" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="144" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="145" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="146" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="147" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="148" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="149" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="150" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="151" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="152" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="153" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="154" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="155" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="156" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="157" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="158" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="159" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="160" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="161" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="162" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="163" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="164" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="165" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="166" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="167" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="168" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="169" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="170" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="171" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="172" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="173" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="174" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="175" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="176" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="177" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="178" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="179" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="180" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="181" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="182" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="183" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="184" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="185" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="186" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="187" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="188" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="189" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="190" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="191" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="192" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="193" spans="2:10" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="2:10" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="195" spans="2:10" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="196" spans="2:10" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="197" spans="2:10" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="198" spans="2:10" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
     <row r="199" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B199" s="15"/>
-      <c r="C199" s="15"/>
-      <c r="D199" s="15"/>
-      <c r="E199" s="15"/>
-      <c r="F199" s="15"/>
-      <c r="G199" s="15"/>
-      <c r="H199" s="15"/>
-      <c r="I199" s="15"/>
-      <c r="J199" s="15"/>
+      <c r="B199" s="10"/>
+      <c r="C199" s="10"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="10"/>
+      <c r="G199" s="10"/>
+      <c r="H199" s="10"/>
+      <c r="I199" s="10"/>
+      <c r="J199" s="10"/>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B200" s="15"/>
-      <c r="C200" s="15"/>
-      <c r="D200" s="15"/>
-      <c r="E200" s="15"/>
-      <c r="F200" s="15"/>
-      <c r="G200" s="15"/>
-      <c r="H200" s="15"/>
-      <c r="I200" s="15"/>
-      <c r="J200" s="15"/>
+      <c r="B200" s="10"/>
+      <c r="C200" s="10"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="10"/>
+      <c r="G200" s="10"/>
+      <c r="H200" s="10"/>
+      <c r="I200" s="10"/>
+      <c r="J200" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
